--- a/data/Income5YACSST5Y2022.S1901_2024-07-03T182117/YTfilter_ACSST5Y2022.S1901-Column-Metadata.xlsx
+++ b/data/Income5YACSST5Y2022.S1901_2024-07-03T182117/YTfilter_ACSST5Y2022.S1901-Column-Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamakick/myprojects/project1_wheelchair/data/Income5YACSST5Y2022.S1901_2024-07-03T182117/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{97A56464-BC0F-F44A-A13A-1F353E0DDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD5FC8B-99A0-6B47-A944-D24C9EBDF279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="880" windowWidth="26840" windowHeight="18680" xr2:uid="{BC0A5A6D-190E-8546-8C9E-B17E03B863F4}"/>
+    <workbookView xWindow="34200" yWindow="500" windowWidth="27320" windowHeight="19980" xr2:uid="{BC0A5A6D-190E-8546-8C9E-B17E03B863F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ACSST5Y2022.S1901-Column-Metada" sheetId="1" r:id="rId1"/>
@@ -1694,12 +1694,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
